--- a/Assets/RawData/Excel/ItemData.xlsx
+++ b/Assets/RawData/Excel/ItemData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity3D\TheLast\Assets\RowData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity3D\TheLast\Assets\RawData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Consume</t>
   </si>
   <si>
@@ -95,23 +91,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>robe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test heal Item</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>robe!!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wood Sttaf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood sttaf!!</t>
+    <t>나무 스태프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 로브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급 회복 물약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 10을 회복합니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 로브입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 스태프입니다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +410,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>10001001</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
         <v>15</v>
@@ -560,23 +560,23 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
+      <c r="A4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B4">
         <v>70001001</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>23</v>
+      <c r="M4" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4">
         <v>10</v>

--- a/Assets/RawData/Excel/ItemData.xlsx
+++ b/Assets/RawData/Excel/ItemData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -87,10 +87,6 @@
     <t>Consume</t>
   </si>
   <si>
-    <t>Consume/Test_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 스태프</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -112,6 +108,22 @@
   </si>
   <si>
     <t>나무 스태프입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consume/hpConsume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급 마나 물약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 10을 회복합니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consume/mpConsume</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -407,10 +419,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -467,7 +479,7 @@
     </row>
     <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>10001001</v>
@@ -503,7 +515,7 @@
         <v>-5</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
@@ -514,7 +526,7 @@
     </row>
     <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>10002001</v>
@@ -550,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
         <v>15</v>
@@ -561,7 +573,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>70001001</v>
@@ -573,12 +585,35 @@
         <v>10</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>70001002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5">
         <v>10</v>
       </c>
     </row>
